--- a/테이블정의서 .xlsx
+++ b/테이블정의서 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51017D6A-22E1-4A4C-9D3F-C9EFA36BD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946FCD4-BA50-42E9-85BC-F4B42BF887BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{1F7261A9-D15E-45DA-A08C-88349B9CC4A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F7261A9-D15E-45DA-A08C-88349B9CC4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="102">
   <si>
     <t>I_USR_MN</t>
   </si>
@@ -353,6 +353,53 @@
   </si>
   <si>
     <t xml:space="preserve">NOT NULL </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 이력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_MSG_LOG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>SYSTEM 은 접속</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE I_MSG_LOG (</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCV_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCV_NM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -825,14 +872,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107037C9-61B5-4C37-9955-FF78FA31D1BD}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:XFD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P12"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
@@ -1521,7 +1569,7 @@
         <v>,ROOM_NM VARCHAR (100) NOT NULL</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1612,7 @@
         <v>,ROOM_NUM INT  DEFAULT '1'</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1653,7 @@
         <v xml:space="preserve">,ROOM_MAX_NUM INT  </v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
@@ -1650,7 +1698,7 @@
         <v>,USE_AT CHAR (1) DEFAULT 'Y'</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1693,7 +1741,7 @@
         <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1736,7 +1784,7 @@
         <v xml:space="preserve">,RGSUSR VARCHAR (100) </v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1779,7 +1827,7 @@
         <v>,MODDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
@@ -1824,13 +1872,13 @@
         <v>,MODUSR VARCHAR (100) );</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="E24" s="8"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>56</v>
@@ -1859,22 +1907,23 @@
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
       <c r="L25" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="2"/>
       <c r="P25" s="3" t="str">
-        <f t="shared" ref="P25:P31" si="7">L25&amp;M25&amp;N25&amp;O25</f>
-        <v>CREATE TABLE I_MSG (</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <f t="shared" ref="P25:P32" si="7">L25&amp;M25&amp;N25&amp;O25</f>
+        <v>CREATE TABLE I_MSG_LOG (</v>
+      </c>
+      <c r="XFD25" s="3"/>
+    </row>
+    <row r="26" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -1893,47 +1942,52 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="str">
-        <f t="shared" ref="M26:M31" si="8">IF(ISBLANK(H26), F26&amp;" "&amp;IF(G26="DATE","DATETIME",G26)&amp;" ", F26&amp;" "&amp;IF(G26="DATE"," ",G26)&amp;" ("&amp;H26&amp;")")</f>
+        <f t="shared" ref="M26:M32" si="8">IF(ISBLANK(H26), F26&amp;" "&amp;IF(G26="DATE","DATETIME",G26)&amp;" ", F26&amp;" "&amp;IF(G26="DATE"," ",G26)&amp;" ("&amp;H26&amp;")")</f>
         <v xml:space="preserve">ROOM_ID INT </v>
       </c>
       <c r="N26" s="4" t="str">
-        <f t="shared" ref="N26:N31" si="9">IF(ISBLANK(I26)," ", " "&amp;I26)</f>
-        <v xml:space="preserve"> PRIMARY KEY</v>
+        <f t="shared" ref="N26:N32" si="9">IF(ISBLANK(I26)," ", " "&amp;I26)</f>
+        <v xml:space="preserve"> AUTO_INCREMENT PRIMARY KEY</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>ROOM_ID INT  PRIMARY KEY</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <v>ROOM_ID INT  AUTO_INCREMENT PRIMARY KEY</v>
+      </c>
+      <c r="XFD26" s="3"/>
+    </row>
+    <row r="27" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
+        <v>100</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="4" t="s">
@@ -1941,86 +1995,90 @@
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">SND_ID INT </v>
+        <v>ROOM_NM VARCHAR (100)</v>
       </c>
       <c r="N27" s="4" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="3" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">,SND_ID INT  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <v>,ROOM_NM VARCHAR (100) NOT NULL</v>
+      </c>
+      <c r="XFD27" s="3"/>
+    </row>
+    <row r="28" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H28" s="6">
-        <v>100</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+        <v>5000</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>SND_NM VARCHAR (100)</v>
+        <v>MSG VARCHAR (5000)</v>
       </c>
       <c r="N28" s="4" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> DEFAULT 'SYSTEM'</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="3" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">,SND_NM VARCHAR (100) </v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <v>,MSG VARCHAR (5000) DEFAULT 'SYSTEM'</v>
+      </c>
+      <c r="XFD28" s="3"/>
+    </row>
+    <row r="29" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2029,42 +2087,43 @@
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>MSG VARCHAR (5000)</v>
+        <v xml:space="preserve">RGSDATE DATETIME </v>
       </c>
       <c r="N29" s="4" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> NOT NULL</v>
+        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>,MSG VARCHAR (5000) NOT NULL</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="XFD29" s="3"/>
+    </row>
+    <row r="30" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6">
         <v>5</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H30" s="6">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="4" t="s">
@@ -2072,42 +2131,43 @@
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">RGSDATE DATETIME </v>
+        <v>RGSUSR VARCHAR (100)</v>
       </c>
       <c r="N30" s="4" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" thickBot="1">
+        <v xml:space="preserve">,RGSUSR VARCHAR (100) </v>
+      </c>
+      <c r="XFD30" s="3"/>
+    </row>
+    <row r="31" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C31" s="7">
         <v>6</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="7">
-        <v>100</v>
-      </c>
-      <c r="I31" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="4" t="s">
@@ -2115,17 +2175,451 @@
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>RGSUSR VARCHAR (100)</v>
+        <v xml:space="preserve">MODDATE DATETIME </v>
       </c>
       <c r="N31" s="4" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="3" t="str">
         <f t="shared" si="7"/>
+        <v>,MODDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="XFD31" s="3"/>
+    </row>
+    <row r="32" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="6">
+        <v>100</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>MODUSR VARCHAR (100)</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>,MODUSR VARCHAR (100) );</v>
+      </c>
+      <c r="XFD32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="E33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3" t="str">
+        <f t="shared" ref="P34:P42" si="10">L34&amp;M34&amp;N34&amp;O34</f>
+        <v>CREATE TABLE I_MSG (</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="str">
+        <f t="shared" ref="M35:M42" si="11">IF(ISBLANK(H35), F35&amp;" "&amp;IF(G35="DATE","DATETIME",G35)&amp;" ", F35&amp;" "&amp;IF(G35="DATE"," ",G35)&amp;" ("&amp;H35&amp;")")</f>
+        <v xml:space="preserve">ROOM_ID INT </v>
+      </c>
+      <c r="N35" s="4" t="str">
+        <f t="shared" ref="N35:N42" si="12">IF(ISBLANK(I35)," ", " "&amp;I35)</f>
+        <v xml:space="preserve"> PRIMARY KEY</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>ROOM_ID INT  PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">SND_ID INT </v>
+      </c>
+      <c r="N36" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,SND_ID INT  </v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="6">
+        <v>100</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>SND_NM VARCHAR (100)</v>
+      </c>
+      <c r="N37" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,SND_NM VARCHAR (100) </v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="4" t="str">
+        <f t="shared" ref="M38:M39" si="13">IF(ISBLANK(H38), F38&amp;" "&amp;IF(G38="DATE","DATETIME",G38)&amp;" ", F38&amp;" "&amp;IF(G38="DATE"," ",G38)&amp;" ("&amp;H38&amp;")")</f>
+        <v xml:space="preserve">RCV_ID INT </v>
+      </c>
+      <c r="N38" s="4" t="str">
+        <f t="shared" ref="N38:N39" si="14">IF(ISBLANK(I38)," ", " "&amp;I38)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3" t="str">
+        <f t="shared" ref="P38:P39" si="15">L38&amp;M38&amp;N38&amp;O38</f>
+        <v xml:space="preserve">,RCV_ID INT  </v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="6">
+        <v>100</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>RCV_NM VARCHAR (100)</v>
+      </c>
+      <c r="N39" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,RCV_NM VARCHAR (100) </v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>MSG VARCHAR (5000)</v>
+      </c>
+      <c r="N40" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> NOT NULL</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>,MSG VARCHAR (5000) NOT NULL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">RGSDATE DATETIME </v>
+      </c>
+      <c r="N41" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="7">
+        <v>100</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>RGSUSR VARCHAR (100)</v>
+      </c>
+      <c r="N42" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>,RGSUSR VARCHAR (100) );</v>
       </c>
     </row>

--- a/테이블정의서 .xlsx
+++ b/테이블정의서 .xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946FCD4-BA50-42E9-85BC-F4B42BF887BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD78B0D-746A-418B-95C9-D20C6078503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F7261A9-D15E-45DA-A08C-88349B9CC4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="정보 I" sheetId="2" r:id="rId2"/>
+    <sheet name="로그L" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="110">
   <si>
     <t>I_USR_MN</t>
   </si>
@@ -360,25 +370,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>접속일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅방 이력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>I_MSG_LOG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>채팅 내역</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
     <t>SYSTEM 은 접속</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -400,6 +399,50 @@
   </si>
   <si>
     <t>RCV_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCV_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCV_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SND_NM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_MSG_LOG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODUSR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -872,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107037C9-61B5-4C37-9955-FF78FA31D1BD}">
-  <dimension ref="A1:XFD42"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1477,7 +1520,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="2"/>
       <c r="P14" s="3" t="str">
-        <f t="shared" ref="P14:P23" si="4">L14&amp;M14&amp;N14&amp;O14</f>
+        <f t="shared" ref="P14:P27" si="4">L14&amp;M14&amp;N14&amp;O14</f>
         <v>CREATE TABLE I_ROOM (</v>
       </c>
     </row>
@@ -1511,11 +1554,11 @@
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="str">
-        <f t="shared" ref="M15:M23" si="5">IF(ISBLANK(H15), F15&amp;" "&amp;IF(G15="DATE","DATETIME",G15)&amp;" ", F15&amp;" "&amp;IF(G15="DATE"," ",G15)&amp;" ("&amp;H15&amp;")")</f>
+        <f t="shared" ref="M15:M27" si="5">IF(ISBLANK(H15), F15&amp;" "&amp;IF(G15="DATE","DATETIME",G15)&amp;" ", F15&amp;" "&amp;IF(G15="DATE"," ",G15)&amp;" ("&amp;H15&amp;")")</f>
         <v xml:space="preserve">ROOM_ID INT </v>
       </c>
       <c r="N15" s="4" t="str">
-        <f t="shared" ref="N15:N23" si="6">IF(ISBLANK(I15)," ", " "&amp;I15)</f>
+        <f t="shared" ref="N15:N27" si="6">IF(ISBLANK(I15)," ", " "&amp;I15)</f>
         <v xml:space="preserve"> AUTO_INCREMENT PRIMARY KEY</v>
       </c>
       <c r="O15" s="2"/>
@@ -1569,7 +1612,7 @@
         <v>,ROOM_NM VARCHAR (100) NOT NULL</v>
       </c>
     </row>
-    <row r="17" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
@@ -1612,7 +1655,7 @@
         <v>,ROOM_NUM INT  DEFAULT '1'</v>
       </c>
     </row>
-    <row r="18" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>63</v>
       </c>
@@ -1653,7 +1696,7 @@
         <v xml:space="preserve">,ROOM_MAX_NUM INT  </v>
       </c>
     </row>
-    <row r="19" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
@@ -1698,7 +1741,7 @@
         <v>,USE_AT CHAR (1) DEFAULT 'Y'</v>
       </c>
     </row>
-    <row r="20" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1741,7 +1784,7 @@
         <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
       </c>
     </row>
-    <row r="21" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1784,7 +1827,7 @@
         <v xml:space="preserve">,RGSUSR VARCHAR (100) </v>
       </c>
     </row>
-    <row r="22" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -1808,8 +1851,8 @@
       <c r="I22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1870,7 @@
         <v>,MODDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
       </c>
     </row>
-    <row r="23" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
@@ -1864,346 +1907,327 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>,MODUSR VARCHAR (100) );</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="E24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
+        <v xml:space="preserve">,MODUSR VARCHAR (100) </v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f t="shared" ref="M24:M25" si="7">IF(ISBLANK(H24), F24&amp;" "&amp;IF(G24="DATE","DATETIME",G24)&amp;" ", F24&amp;" "&amp;IF(G24="DATE"," ",G24)&amp;" ("&amp;H24&amp;")")</f>
+        <v xml:space="preserve">RCV_ID INT </v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" ref="N24:N25" si="8">IF(ISBLANK(I24)," ", " "&amp;I24)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,RCV_ID INT  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="6">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="6">
+        <v>100</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>RCV_NM VARCHAR (100)</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="3" t="str">
-        <f t="shared" ref="P25:P32" si="7">L25&amp;M25&amp;N25&amp;O25</f>
-        <v>CREATE TABLE I_MSG_LOG (</v>
-      </c>
-      <c r="XFD25" s="3"/>
-    </row>
-    <row r="26" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,RCV_NM VARCHAR (100) </v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="7">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" ref="M26:M32" si="8">IF(ISBLANK(H26), F26&amp;" "&amp;IF(G26="DATE","DATETIME",G26)&amp;" ", F26&amp;" "&amp;IF(G26="DATE"," ",G26)&amp;" ("&amp;H26&amp;")")</f>
-        <v xml:space="preserve">ROOM_ID INT </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">SND_ID INT </v>
       </c>
       <c r="N26" s="4" t="str">
-        <f t="shared" ref="N26:N32" si="9">IF(ISBLANK(I26)," ", " "&amp;I26)</f>
-        <v xml:space="preserve"> AUTO_INCREMENT PRIMARY KEY</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>ROOM_ID INT  AUTO_INCREMENT PRIMARY KEY</v>
-      </c>
-      <c r="XFD26" s="3"/>
-    </row>
-    <row r="27" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,SND_ID INT  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="6">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>100</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>ROOM_NM VARCHAR (100)</v>
+        <f t="shared" si="5"/>
+        <v>SND_NM VARCHAR (100)</v>
       </c>
       <c r="N27" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> NOT NULL</v>
-      </c>
-      <c r="O27" s="2"/>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P27" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>,ROOM_NM VARCHAR (100) NOT NULL</v>
-      </c>
-      <c r="XFD27" s="3"/>
-    </row>
-    <row r="28" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>MSG VARCHAR (5000)</v>
-      </c>
-      <c r="N28" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> DEFAULT 'SYSTEM'</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>,MSG VARCHAR (5000) DEFAULT 'SYSTEM'</v>
-      </c>
-      <c r="XFD28" s="3"/>
-    </row>
-    <row r="29" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="7">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+        <f t="shared" si="4"/>
+        <v>,SND_NM VARCHAR (100) );</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="E28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">RGSDATE DATETIME </v>
-      </c>
-      <c r="N29" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="2"/>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
-      <c r="XFD29" s="3"/>
-    </row>
-    <row r="30" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+        <f t="shared" ref="P29:P37" si="9">L29&amp;M29&amp;N29&amp;O29</f>
+        <v>CREATE TABLE I_MSG (</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C30" s="6">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="6">
-        <v>100</v>
-      </c>
-      <c r="I30" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>RGSUSR VARCHAR (100)</v>
+        <f t="shared" ref="M30:M37" si="10">IF(ISBLANK(H30), F30&amp;" "&amp;IF(G30="DATE","DATETIME",G30)&amp;" ", F30&amp;" "&amp;IF(G30="DATE"," ",G30)&amp;" ("&amp;H30&amp;")")</f>
+        <v xml:space="preserve">ROOM_ID INT </v>
       </c>
       <c r="N30" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="N30:N37" si="11">IF(ISBLANK(I30)," ", " "&amp;I30)</f>
+        <v xml:space="preserve"> PRIMARY KEY</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,RGSUSR VARCHAR (100) </v>
-      </c>
-      <c r="XFD30" s="3"/>
-    </row>
-    <row r="31" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+        <f t="shared" si="9"/>
+        <v>ROOM_ID INT  PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">MODDATE DATETIME </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">SND_ID INT </v>
       </c>
       <c r="N31" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>,MODDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
-      <c r="XFD31" s="3"/>
-    </row>
-    <row r="32" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,SND_ID INT  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C32" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -2218,408 +2242,233 @@
         <v>2</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>MODUSR VARCHAR (100)</v>
+        <f t="shared" si="10"/>
+        <v>SND_NM VARCHAR (100)</v>
       </c>
       <c r="N32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3" t="str">
         <f t="shared" si="9"/>
+        <v xml:space="preserve">,SND_NM VARCHAR (100) </v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f t="shared" ref="M33:M34" si="12">IF(ISBLANK(H33), F33&amp;" "&amp;IF(G33="DATE","DATETIME",G33)&amp;" ", F33&amp;" "&amp;IF(G33="DATE"," ",G33)&amp;" ("&amp;H33&amp;")")</f>
+        <v xml:space="preserve">RCV_ID INT </v>
+      </c>
+      <c r="N33" s="4" t="str">
+        <f t="shared" ref="N33:N34" si="13">IF(ISBLANK(I33)," ", " "&amp;I33)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>,MODUSR VARCHAR (100) );</v>
-      </c>
-      <c r="XFD32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="E33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3" t="str">
+        <f t="shared" ref="P33:P34" si="14">L33&amp;M33&amp;N33&amp;O33</f>
+        <v xml:space="preserve">,RCV_ID INT  </v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
+      <c r="A34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="6">
+        <v>100</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M34" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>RCV_NM VARCHAR (100)</v>
+      </c>
+      <c r="N34" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="3" t="str">
-        <f t="shared" ref="P34:P42" si="10">L34&amp;M34&amp;N34&amp;O34</f>
-        <v>CREATE TABLE I_MSG (</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,RCV_NM VARCHAR (100) </v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="4"/>
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" ref="M35:M42" si="11">IF(ISBLANK(H35), F35&amp;" "&amp;IF(G35="DATE","DATETIME",G35)&amp;" ", F35&amp;" "&amp;IF(G35="DATE"," ",G35)&amp;" ("&amp;H35&amp;")")</f>
-        <v xml:space="preserve">ROOM_ID INT </v>
+        <f t="shared" si="10"/>
+        <v>MSG VARCHAR (5000)</v>
       </c>
       <c r="N35" s="4" t="str">
-        <f t="shared" ref="N35:N42" si="12">IF(ISBLANK(I35)," ", " "&amp;I35)</f>
-        <v xml:space="preserve"> PRIMARY KEY</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>,MSG VARCHAR (5000) NOT NULL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>ROOM_ID INT  PRIMARY KEY</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M36" s="4" t="str">
+        <v xml:space="preserve">RGSDATE DATETIME </v>
+      </c>
+      <c r="N36" s="4" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">SND_ID INT </v>
-      </c>
-      <c r="N36" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="7">
+        <v>100</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="4" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,SND_ID INT  </v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="6">
-        <v>100</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="4" t="str">
+        <v>RGSUSR VARCHAR (100)</v>
+      </c>
+      <c r="N37" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>SND_NM VARCHAR (100)</v>
-      </c>
-      <c r="N37" s="4" t="str">
-        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P37" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,SND_NM VARCHAR (100) </v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="4" t="str">
-        <f t="shared" ref="M38:M39" si="13">IF(ISBLANK(H38), F38&amp;" "&amp;IF(G38="DATE","DATETIME",G38)&amp;" ", F38&amp;" "&amp;IF(G38="DATE"," ",G38)&amp;" ("&amp;H38&amp;")")</f>
-        <v xml:space="preserve">RCV_ID INT </v>
-      </c>
-      <c r="N38" s="4" t="str">
-        <f t="shared" ref="N38:N39" si="14">IF(ISBLANK(I38)," ", " "&amp;I38)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="3" t="str">
-        <f t="shared" ref="P38:P39" si="15">L38&amp;M38&amp;N38&amp;O38</f>
-        <v xml:space="preserve">,RCV_ID INT  </v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="6">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="6">
-        <v>100</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M39" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>RCV_NM VARCHAR (100)</v>
-      </c>
-      <c r="N39" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,RCV_NM VARCHAR (100) </v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M40" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>MSG VARCHAR (5000)</v>
-      </c>
-      <c r="N40" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> NOT NULL</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>,MSG VARCHAR (5000) NOT NULL</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="6">
-        <v>7</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">RGSDATE DATETIME </v>
-      </c>
-      <c r="N41" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>,RGSDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="7">
-        <v>8</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="7">
-        <v>100</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M42" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>RGSUSR VARCHAR (100)</v>
-      </c>
-      <c r="N42" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>,RGSUSR VARCHAR (100) );</v>
       </c>
     </row>
@@ -2628,4 +2477,508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7383C-3B67-486B-9D1E-DAE1A2F8B057}">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="9" max="9" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3" t="str">
+        <f>L1&amp;M1&amp;N1&amp;O1</f>
+        <v>CREATE TABLE I_MSG_LOG (</v>
+      </c>
+      <c r="XFD1" s="3"/>
+    </row>
+    <row r="2" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f>IF(ISBLANK(H2), F2&amp;" "&amp;IF(G2="DATE","DATETIME",G2)&amp;" ", F2&amp;" "&amp;IF(G2="DATE"," ",G2)&amp;" ("&amp;H2&amp;")")</f>
+        <v xml:space="preserve">ROOM_ID INT </v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>IF(ISBLANK(I2)," ", " "&amp;I2)</f>
+        <v xml:space="preserve"> AUTO_INCREMENT PRIMARY KEY</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="str">
+        <f>L2&amp;M2&amp;N2&amp;O2</f>
+        <v>,ROOM_ID INT  AUTO_INCREMENT PRIMARY KEY</v>
+      </c>
+      <c r="XFD2" s="3"/>
+    </row>
+    <row r="3" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ref="M3:M10" si="0">IF(ISBLANK(H3), F3&amp;" "&amp;IF(G3="DATE","DATETIME",G3)&amp;" ", F3&amp;" "&amp;IF(G3="DATE"," ",G3)&amp;" ("&amp;H3&amp;")")</f>
+        <v>ROOM_NM VARCHAR (100)</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N11" si="1">IF(ISBLANK(I3)," ", " "&amp;I3)</f>
+        <v xml:space="preserve"> NOT NULL</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3" t="str">
+        <f>L3&amp;M3&amp;N3&amp;O3</f>
+        <v>,ROOM_NM VARCHAR (100) NOT NULL</v>
+      </c>
+      <c r="XFD3" s="3"/>
+    </row>
+    <row r="4" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>MSG VARCHAR (5000)</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> DEFAULT 'SYSTEM'</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3" t="str">
+        <f>L4&amp;M4&amp;N4&amp;O4</f>
+        <v>,MSG VARCHAR (5000) DEFAULT 'SYSTEM'</v>
+      </c>
+      <c r="XFD4" s="3"/>
+    </row>
+    <row r="5" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">RCV_ID INT </v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="XFD5" s="3"/>
+    </row>
+    <row r="6" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>RCV_NM VARCHAR (100)</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="XFD6" s="3"/>
+    </row>
+    <row r="7" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">SND_ID INT </v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="XFD7" s="3"/>
+    </row>
+    <row r="8" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SND_NM VARCHAR (100)</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3" t="str">
+        <f>L8&amp;M8&amp;N8&amp;O8</f>
+        <v xml:space="preserve">,SND_NM VARCHAR (100) </v>
+      </c>
+      <c r="XFD8" s="3"/>
+    </row>
+    <row r="9" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7">
+        <v>100</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>RGSUSR VARCHAR (100)</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="str">
+        <f>L9&amp;M9&amp;N9&amp;O9</f>
+        <v xml:space="preserve">,RGSUSR VARCHAR (100) </v>
+      </c>
+      <c r="XFD9" s="3"/>
+    </row>
+    <row r="10" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">MODDATE DATETIME </v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3" t="str">
+        <f>L10&amp;M10&amp;N10&amp;O10</f>
+        <v>,MODDATE DATETIME  DEFAULT CURRENT_TIMESTAMP</v>
+      </c>
+      <c r="XFD10" s="3"/>
+    </row>
+    <row r="11" spans="1:16 16384:16384" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>IF(ISBLANK(H11), F11&amp;" "&amp;IF(G11="DATE","DATETIME",G11)&amp;" ", F11&amp;" "&amp;IF(G11="DATE"," ",G11)&amp;" ("&amp;H11&amp;")")</f>
+        <v>MODUSR VARCHAR (100)</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f>L11&amp;M11&amp;N11&amp;O11</f>
+        <v>,MODUSR VARCHAR (100) );</v>
+      </c>
+      <c r="XFD11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>